--- a/ExcelToXML/UploadExcels/Statement_117904113 (1).xlsx
+++ b/ExcelToXML/UploadExcels/Statement_117904113 (1).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20339"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmosidze\Desktop\BANK XML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azenaishvili.MOLHSA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE3763C-F356-4955-AEE9-7D8A627D62D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="-240" windowWidth="19020" windowHeight="4185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="-240" windowWidth="19020" windowHeight="4185"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Account" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
   <si>
     <t>ამონაწერი</t>
   </si>
@@ -335,11 +334,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[Black]#,##0.00;[Red]\(#,##0.00\);[Black]#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,35 +691,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tableStatement" displayName="tableStatement" ref="A13:Z21" totalsRowCount="1">
-  <autoFilter ref="A13:Z20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tableStatement" displayName="tableStatement" ref="A13:Z21" totalsRowCount="1">
+  <autoFilter ref="A13:Z20"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="თარიღი" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="საბუთის N"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="მოკორესპოდენტო ანგარიში"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="დებეტი" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="კრედიტი" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ოპერაციის შინაარსი" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ოპერაციის ტიპი"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ოპერაციის იდ"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ref"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="გამგზავნის დასახელება"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="გამგზავნის საიდენტიფიკაციო კოდი"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="გამგზავნის ანგარიშის ნომერი"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="გამგზავნი ბანკის კოდი"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="გამგზავნი ბანკის დასახელება"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="მიმღების დასახელება"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="მიმღების საიდენტიფიკაციო კოდი" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="მიმღების ანგარიშის ნომერი"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="მიმღები ბანკის კოდი"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="მიმღები ბანკის დასახელება"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="დანიშნულება"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="დამატებითი ინფორმაცია"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="თანხა"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="ბრუნვა დებეტი"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="ბრუნვა კრედიტი"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="ნაშთი დღის ბოლოს"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="ნაშთი ოპერაციის ბოლოს"/>
+    <tableColumn id="1" name="თარიღი" dataDxfId="4"/>
+    <tableColumn id="2" name="საბუთის N"/>
+    <tableColumn id="3" name="მოკორესპოდენტო ანგარიში"/>
+    <tableColumn id="4" name="დებეტი" dataDxfId="3"/>
+    <tableColumn id="5" name="კრედიტი" dataDxfId="2"/>
+    <tableColumn id="6" name="ოპერაციის შინაარსი" dataDxfId="1"/>
+    <tableColumn id="7" name="ოპერაციის ტიპი"/>
+    <tableColumn id="8" name="ოპერაციის იდ"/>
+    <tableColumn id="9" name="Ref"/>
+    <tableColumn id="10" name="გამგზავნის დასახელება"/>
+    <tableColumn id="11" name="გამგზავნის საიდენტიფიკაციო კოდი"/>
+    <tableColumn id="12" name="გამგზავნის ანგარიშის ნომერი"/>
+    <tableColumn id="13" name="გამგზავნი ბანკის კოდი"/>
+    <tableColumn id="14" name="გამგზავნი ბანკის დასახელება"/>
+    <tableColumn id="15" name="მიმღების დასახელება"/>
+    <tableColumn id="16" name="მიმღების საიდენტიფიკაციო კოდი" dataDxfId="0"/>
+    <tableColumn id="17" name="მიმღების ანგარიშის ნომერი"/>
+    <tableColumn id="18" name="მიმღები ბანკის კოდი"/>
+    <tableColumn id="19" name="მიმღები ბანკის დასახელება"/>
+    <tableColumn id="20" name="დანიშნულება"/>
+    <tableColumn id="21" name="დამატებითი ინფორმაცია"/>
+    <tableColumn id="22" name="თანხა"/>
+    <tableColumn id="23" name="ბრუნვა დებეტი"/>
+    <tableColumn id="24" name="ბრუნვა კრედიტი"/>
+    <tableColumn id="25" name="ნაშთი დღის ბოლოს"/>
+    <tableColumn id="26" name="ნაშთი ოპერაციის ბოლოს"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -802,23 +801,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -854,23 +836,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1046,14 +1011,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="6" customWidth="1"/>
     <col min="2" max="2" width="18" style="8" customWidth="1"/>
@@ -1084,7 +1049,7 @@
     <col min="35" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="15" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1062,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="15" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="9" t="s">
         <v>1</v>
@@ -1112,7 +1077,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="9" t="s">
         <v>3</v>
@@ -1127,7 +1092,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="9" t="s">
         <v>5</v>
@@ -1142,7 +1107,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="15" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="9" t="s">
         <v>7</v>
@@ -1157,7 +1122,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="15" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="9" t="s">
         <v>9</v>
@@ -1172,7 +1137,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="15" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="9" t="s">
         <v>11</v>
@@ -1187,7 +1152,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="15" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="9" t="s">
         <v>12</v>
@@ -1202,7 +1167,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15" customHeight="1">
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1225,7 +1190,7 @@
       <c r="AF12" s="16"/>
       <c r="AG12" s="16"/>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="15" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>13</v>
       </c>
@@ -1268,10 +1233,10 @@
       <c r="N13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Q13" s="5" t="s">
@@ -1314,7 +1279,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="12.75">
       <c r="A14" s="29">
         <v>44595</v>
       </c>
@@ -1358,9 +1323,7 @@
       <c r="O14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="31" t="s">
-        <v>4</v>
-      </c>
+      <c r="P14" s="31"/>
       <c r="Q14" s="8" t="s">
         <v>47</v>
       </c>
@@ -1392,7 +1355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="12.75">
       <c r="A15" s="29">
         <v>44595</v>
       </c>
@@ -1470,7 +1433,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="12.75">
       <c r="A16" s="29">
         <v>44595</v>
       </c>
@@ -1548,7 +1511,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="12.75">
       <c r="A17" s="29">
         <v>44595</v>
       </c>
@@ -1592,9 +1555,7 @@
       <c r="O17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="31" t="s">
-        <v>62</v>
-      </c>
+      <c r="P17" s="31"/>
       <c r="Q17" s="8" t="s">
         <v>63</v>
       </c>
@@ -1626,7 +1587,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="12.75">
       <c r="A18" s="29">
         <v>44595</v>
       </c>
@@ -1704,7 +1665,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="12.75">
       <c r="A19" s="29">
         <v>44595</v>
       </c>
@@ -1782,7 +1743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="12.75">
       <c r="A20" s="29">
         <v>44595</v>
       </c>
@@ -1860,87 +1821,35 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+    </row>
+    <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="C23" s="10" t="s">
         <v>88</v>
       </c>
@@ -1948,7 +1857,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="C24" s="10" t="s">
         <v>94</v>
       </c>
@@ -1956,7 +1865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>93</v>
       </c>
@@ -1964,7 +1873,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>91</v>
       </c>
@@ -1972,32 +1881,32 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15" customHeight="1">
       <c r="F31" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15" customHeight="1">
       <c r="F32" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15" customHeight="1">
       <c r="B33" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15" customHeight="1">
       <c r="C35" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" ht="15" customHeight="1">
       <c r="C36" s="10" t="s">
         <v>102</v>
       </c>
@@ -2016,16 +1925,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24842CE5-DDEB-44F0-A9B9-976BA15ED865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="27" t="s">
         <v>95</v>
       </c>
